--- a/Макеты/03/ВА_ИмпортExcel+Меркурий.xlsx
+++ b/Макеты/03/ВА_ИмпортExcel+Меркурий.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VA-Tests\VA-Tests-UH32-Budget\Макеты\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VA-Tests\VA-Tests-UH32-Budget\Макеты\03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D86D729-11CF-460C-8702-7DB2BD130C6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B76E89-50AC-4D7F-BBF8-2C3E2DCE774D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="32760" windowWidth="11400" windowHeight="5895" tabRatio="160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,7 +677,7 @@
   <dimension ref="A2:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="3" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -740,7 +740,7 @@
       </c>
       <c r="N4" s="12"/>
     </row>
-    <row r="5" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -779,7 +779,9 @@
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="I6" s="5"/>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
       <c r="J6" s="5"/>
       <c r="K6" s="6">
         <v>4</v>
@@ -805,9 +807,13 @@
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
-      <c r="I7" s="5"/>
+      <c r="I7" s="5">
+        <v>2</v>
+      </c>
       <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="K7" s="5">
+        <v>999</v>
+      </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -851,9 +857,13 @@
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
-      <c r="I9" s="5"/>
+      <c r="I9" s="5">
+        <v>30</v>
+      </c>
       <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="K9" s="5">
+        <v>999</v>
+      </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -869,9 +879,13 @@
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5">
+        <v>20</v>
+      </c>
       <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="K10" s="5">
+        <v>999</v>
+      </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -887,9 +901,13 @@
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
-      <c r="I11" s="5"/>
+      <c r="I11" s="5">
+        <v>10</v>
+      </c>
       <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="K11" s="5">
+        <v>999</v>
+      </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -965,9 +983,13 @@
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
-      <c r="I14" s="5"/>
+      <c r="I14" s="5">
+        <v>10</v>
+      </c>
       <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="K14" s="5">
+        <v>999</v>
+      </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
@@ -1047,9 +1069,13 @@
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17"/>
-      <c r="I17" s="5"/>
+      <c r="I17" s="5">
+        <v>10</v>
+      </c>
       <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="K17" s="5">
+        <v>999</v>
+      </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -1065,9 +1091,13 @@
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18"/>
-      <c r="I18" s="5"/>
+      <c r="I18" s="5">
+        <v>10</v>
+      </c>
       <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="K18" s="5">
+        <v>999</v>
+      </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -1283,9 +1313,13 @@
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
-      <c r="I24" s="5"/>
+      <c r="I24" s="5">
+        <v>10</v>
+      </c>
       <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
+      <c r="K24" s="5">
+        <v>999</v>
+      </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
@@ -1301,9 +1335,13 @@
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
-      <c r="I25" s="5"/>
+      <c r="I25" s="5">
+        <v>10</v>
+      </c>
       <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
+      <c r="K25" s="5">
+        <v>999</v>
+      </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
